--- a/data/trans_dic/KIDM_C_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/KIDM_C_1_R-Estudios-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,84</t>
+          <t>0,0; 21,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 61,13</t>
+          <t>0,0; 66,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,62; 34,73</t>
+          <t>2,69; 37,54</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,8; 7,15</t>
+          <t>1,86; 7,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,84; 9,62</t>
+          <t>2,63; 9,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,65; 6,99</t>
+          <t>2,67; 6,87</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,02; 16,82</t>
+          <t>2,1; 16,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,24</t>
+          <t>0,0; 14,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,26; 11,32</t>
+          <t>2,18; 12,22</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,47; 7,57</t>
+          <t>2,35; 6,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,5; 11,08</t>
+          <t>3,69; 11,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,57; 7,93</t>
+          <t>3,48; 7,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/KIDM_C_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/KIDM_C_1_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>18,99%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>23,15%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>11,04%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,92</t>
+          <t>0,0; 52,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 66,9</t>
+          <t>0,0; 22,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,69; 37,54</t>
+          <t>2,6; 31,79</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>3,89%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,86; 7,35</t>
+          <t>2,03; 8,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,63; 9,51</t>
+          <t>1,6; 6,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,67; 6,87</t>
+          <t>2,28; 6,48</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>6,99%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>5,81%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,1; 16,35</t>
+          <t>0,0; 13,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,1</t>
+          <t>1,47; 16,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,18; 12,22</t>
+          <t>2,33; 12,66</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>4,69%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,35; 6,9</t>
+          <t>2,51; 8,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,69; 11,33</t>
+          <t>2,31; 6,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,48; 7,62</t>
+          <t>3,12; 6,91</t>
         </is>
       </c>
     </row>
